--- a/medicine/Enfance/Zéro_réseau/Zéro_réseau.xlsx
+++ b/medicine/Enfance/Zéro_réseau/Zéro_réseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z%C3%A9ro_r%C3%A9seau</t>
+          <t>Zéro_réseau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zéro réseau est le dixième tome de la série Journal d'un dégonflé. Il a été écrit et illustré par Jeff Kinney. Le livre est sorti en version française le 13 octobre 2016.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Z%C3%A9ro_r%C3%A9seau</t>
+          <t>Zéro_réseau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Greg explique que ses parents sont assez nostalgiques de l'ancien temps, et avaient l'habitude de se connaître. Sa mère Susan voudrait instaurer une pétition, qui pourrait obliger les gens à se passer d'électricité durant deux jours. Mais Greg et Rodrick font toujours semblant de ne pas la connaître quand elle fait ça. Greg évoque également l'enfance de son père Frank qui jouait dehors avec ses copains. Par ailleurs, le cochon apprend à marcher.
 Mais l'animal refuse de porter un collier traqueur et peut aller et venir à sa guise dans la maison, ne disposant pas d'un couvre-feu.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z%C3%A9ro_r%C3%A9seau</t>
+          <t>Zéro_réseau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le collège de Greg organise une sortie à la ferme, sans gadgets électroniques ni réseaux. Greg est dans un premier temps assez réticent à l'idée d'aller à cette sortie, mais après avoir commis quelques impairs avec le bouchon de dentifrice coincé dans l'évier et le fait que son grand-père ait dû conduire sans permis, il accepte finalement de s y rendre. En partant, il reçoit un livre de survie de la part de son grand-père et en arrivant, lui et son groupe sont informés de la présence de Silas Crochu, quelqu'un à qui on doit faire attention. Durant le séjour, le père de Robert encadre un groupe dans lequel son fils et Greg se trouvent. Le petit-déjeuner est infect, les autres repas ne valent pas mieux et tous les enfants doivent travailler comme des fermiers de l'ancien temps. Greg est injustement puni par la faute de ses camarades de chambrée. Par ailleurs, beaucoup d'enfants veulent rentrer, mais cela n'est possible que sur raison médicale. Beaucoup en profitent donc pour simuler une maladie. Robert est victime d'un accident quand il se retrouve avec une dent plantée dans le front, puis plus tard, lui et son père sont obligés de repartir après avoir respiré du sumac vénéneux.
 Un tas de mésaventures arrivent ensuite, où le groupe se retrouve privé du peu de confort qui lui restait et doit en plus supporter le nouveau responsable, qui n'est autre que Frank. Ce dernier a fait partie du même camp dans son enfance. Plus tard, tout le monde doit dormir à la belle étoile. Envoyé de quoi chercher faire du feu, Greg tombe sur son père, lequel lui explique que Silas Crochu n'existe pas. En fait, Frank avait connu un séjour pire que le sien il y a quelques années, et était un jour tombé sur une cabine de maintenance, mais ne voulant pas que tout le monde le sache, il avait inventé l'histoire de ce personnage. Greg décide de ne rien dire. Cette nuit, Frank se désintéresse des règles prévues par le camp et emmène tout le monde dans leur chalet. Le lendemain, Greg et ses camarades sont les seuls à avoir passé une bonne nuit. Au lieu de rentrer avec les autres, Greg repart avec Frank et écrit sur un panneau un mot visant à se méfier de Silas Crochu, pour les nouveaux arrivants.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z%C3%A9ro_r%C3%A9seau</t>
+          <t>Zéro_réseau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le livre est de couleur noire.
 Silas Crochu joue le rôle du méchant dans ce roman. C'est la première fois que ce rôle est occupé par un personnage imaginaire.
